--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2728.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2728.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.162898567872367</v>
+        <v>0.7566934823989868</v>
       </c>
       <c r="B1">
-        <v>2.399223902919941</v>
+        <v>1.087204217910767</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>2.065640449523926</v>
       </c>
       <c r="D1">
-        <v>2.366294733779527</v>
+        <v>3.516237735748291</v>
       </c>
       <c r="E1">
-        <v>1.217172325299561</v>
+        <v>3.398043870925903</v>
       </c>
     </row>
   </sheetData>
